--- a/tut05/output/0501CS27.xlsx
+++ b/tut05/output/0501CS27.xlsx
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.775510204081633</v>
+        <v>5.78</v>
       </c>
       <c r="C6" t="n">
-        <v>5.363636363636363</v>
+        <v>5.36</v>
       </c>
       <c r="D6" t="n">
-        <v>5.372093023255814</v>
+        <v>5.37</v>
       </c>
       <c r="E6" t="n">
-        <v>5.361702127659575</v>
+        <v>5.36</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -568,7 +568,7 @@
         <v>5.45</v>
       </c>
       <c r="H6" t="n">
-        <v>6.24390243902439</v>
+        <v>6.24</v>
       </c>
       <c r="I6" t="n">
         <v>6.3</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.775510204081633</v>
+        <v>5.78</v>
       </c>
       <c r="C8" t="n">
-        <v>5.580645161290323</v>
+        <v>5.58</v>
       </c>
       <c r="D8" t="n">
-        <v>5.514705882352941</v>
+        <v>5.51</v>
       </c>
       <c r="E8" t="n">
-        <v>5.475409836065574</v>
+        <v>5.48</v>
       </c>
       <c r="F8" t="n">
-        <v>5.386666666666667</v>
+        <v>5.39</v>
       </c>
       <c r="G8" t="n">
-        <v>5.39622641509434</v>
+        <v>5.4</v>
       </c>
       <c r="H8" t="n">
-        <v>5.509803921568627</v>
+        <v>5.51</v>
       </c>
       <c r="I8" t="n">
-        <v>5.601156069364162</v>
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
